--- a/Assets/EasyExcel/Example/ExcelFiles/Role.xlsx
+++ b/Assets/EasyExcel/Example/ExcelFiles/Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Goblin...</t>
+  </si>
+  <si>
+    <t>icon/icon.png</t>
   </si>
   <si>
     <t>Orc</t>
@@ -105,12 +108,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,44 +129,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,33 +163,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,46 +216,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -278,19 +286,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,163 +424,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +477,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,6 +526,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,8 +563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,58 +572,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,142 +595,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1073,244 +1083,531 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.25" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
+    <row r="4" ht="14.25" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
         <v>1001</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4">
         <v>20</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
+    <row r="5" ht="14.25" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
         <v>1002</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2">
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4">
         <v>80</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+    <row r="6" ht="14.25" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
         <v>1003</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="4">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>120</v>
+      </c>
+      <c r="G8" s="4">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4">
+        <v>160</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4">
+        <v>200</v>
+      </c>
+      <c r="G10" s="4">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H10" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:8">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>2004</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4">
+        <v>80</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:8">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2">
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="14" ht="14.25" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>2006</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="4">
+        <v>50</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:8">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4">
+        <v>120</v>
+      </c>
+      <c r="G15" s="4">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:8">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4">
+        <v>160</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:8">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4">
+        <v>200</v>
+      </c>
+      <c r="G17" s="4">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:8">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
+        <v>2010</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4">
+        <v>100</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:8">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2">
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4">
         <v>1000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G19" s="4">
         <v>50</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H19" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>1005</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2">
-        <v>120</v>
-      </c>
-      <c r="G8" s="2">
+    <row r="20" ht="14.25" spans="1:8">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>2012</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:8">
-      <c r="B9" s="1">
-        <v>2001</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4">
         <v>160</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G20" s="3">
         <v>10</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H20" s="3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="2">
-        <v>2002</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    <row r="21" ht="14.25" spans="1:8">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="2">
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4">
         <v>200</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G21" s="4">
         <v>18</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H21" s="4">
         <v>3.6</v>
       </c>
     </row>

--- a/Assets/EasyExcel/Example/ExcelFiles/Role.xlsx
+++ b/Assets/EasyExcel/Example/ExcelFiles/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21180" windowHeight="9465"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>name</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>""</t>
   </si>
   <si>
     <t>Goblin</t>
@@ -108,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -134,6 +131,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -142,7 +146,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,29 +183,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,78 +222,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,25 +283,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,78 +457,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,78 +464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,71 +474,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,7 +496,72 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,135 +592,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -804,7 +801,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1086,7 +1083,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1160,15 +1157,9 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4">
         <v>0</v>
       </c>
@@ -1185,13 +1176,13 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4">
         <v>20</v>
@@ -1209,13 +1200,13 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4">
         <v>80</v>
@@ -1233,13 +1224,13 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4">
         <v>100</v>
@@ -1257,13 +1248,13 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4">
         <v>1000</v>
@@ -1281,13 +1272,13 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4">
         <v>120</v>
@@ -1305,13 +1296,13 @@
         <v>2001</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4">
         <v>160</v>
@@ -1329,13 +1320,13 @@
         <v>2002</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="4">
         <v>200</v>
@@ -1353,13 +1344,13 @@
         <v>2003</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4">
         <v>20</v>
@@ -1377,13 +1368,13 @@
         <v>2004</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4">
         <v>80</v>
@@ -1401,13 +1392,13 @@
         <v>2005</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4">
         <v>100</v>
@@ -1425,13 +1416,13 @@
         <v>2006</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="4">
         <v>1000</v>
@@ -1449,13 +1440,13 @@
         <v>2007</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="4">
         <v>120</v>
@@ -1473,13 +1464,13 @@
         <v>2008</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4">
         <v>160</v>
@@ -1497,13 +1488,13 @@
         <v>2009</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4">
         <v>200</v>
@@ -1521,13 +1512,13 @@
         <v>2010</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="4">
         <v>100</v>
@@ -1545,13 +1536,13 @@
         <v>2011</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="4">
         <v>1000</v>
@@ -1569,13 +1560,13 @@
         <v>2012</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="4">
         <v>160</v>
@@ -1593,13 +1584,13 @@
         <v>2013</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="4">
         <v>200</v>

--- a/Assets/EasyExcel/Example/ExcelFiles/Role.xlsx
+++ b/Assets/EasyExcel/Example/ExcelFiles/Role.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lk\gitee\EasyExcel\Assets\EasyExcel\Example\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Role" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -124,14 +129,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -142,13 +141,13 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -162,7 +161,7 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -175,40 +174,26 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -228,38 +213,43 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -474,41 +464,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,13 +492,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,10 +507,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -550,19 +519,19 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,13 +540,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,7 +591,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,62 +600,133 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="44">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="32"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="24"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="31"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="33"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="36"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="43"/>
+    <cellStyle name="标题" xfId="2"/>
+    <cellStyle name="标题 1" xfId="14"/>
+    <cellStyle name="标题 2" xfId="15"/>
+    <cellStyle name="标题 3" xfId="16"/>
+    <cellStyle name="标题 4" xfId="11"/>
+    <cellStyle name="差" xfId="6"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="标题" xfId="6"/>
-    <cellStyle name="常规 5 2" xfId="7"/>
-    <cellStyle name="货币[0]" xfId="8" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="输入" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="13"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="注释" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
-    <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
-    <cellStyle name="解释性文本" xfId="20"/>
-    <cellStyle name="标题 1" xfId="21"/>
-    <cellStyle name="标题 2" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
-    <cellStyle name="计算" xfId="27"/>
-    <cellStyle name="检查单元格" xfId="28"/>
-    <cellStyle name="链接单元格" xfId="29"/>
-    <cellStyle name="强调文字颜色 2" xfId="30"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="31"/>
-    <cellStyle name="汇总" xfId="32"/>
-    <cellStyle name="好" xfId="33"/>
-    <cellStyle name="适中" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="40"/>
-    <cellStyle name="强调文字颜色 3" xfId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46"/>
-    <cellStyle name="强调文字颜色 6" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48"/>
-    <cellStyle name="常规 2 3" xfId="49"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50"/>
+    <cellStyle name="常规 2 3" xfId="42"/>
+    <cellStyle name="常规 5 2" xfId="3"/>
+    <cellStyle name="好" xfId="26"/>
+    <cellStyle name="汇总" xfId="25"/>
+    <cellStyle name="计算" xfId="20"/>
+    <cellStyle name="检查单元格" xfId="21"/>
+    <cellStyle name="解释性文本" xfId="13"/>
+    <cellStyle name="警告文本" xfId="10"/>
+    <cellStyle name="链接单元格" xfId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="28"/>
+    <cellStyle name="强调文字颜色 2" xfId="23"/>
+    <cellStyle name="强调文字颜色 3" xfId="34"/>
+    <cellStyle name="强调文字颜色 4" xfId="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="37"/>
+    <cellStyle name="强调文字颜色 6" xfId="40"/>
+    <cellStyle name="适中" xfId="27"/>
+    <cellStyle name="输出" xfId="18"/>
+    <cellStyle name="输入" xfId="5"/>
+    <cellStyle name="注释" xfId="9"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -698,7 +738,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -985,6 +1025,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1017,15 +1058,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="3:3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
@@ -1034,12 +1074,12 @@
     <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="13.8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.2333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.25" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1001</v>
       </c>
@@ -1126,7 +1166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1002</v>
       </c>
@@ -1155,7 +1195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1003</v>
       </c>
@@ -1184,7 +1224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1004</v>
       </c>
@@ -1207,7 +1247,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1005</v>
       </c>
@@ -1233,7 +1273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:7">
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2001</v>
       </c>
@@ -1254,7 +1294,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2002</v>
       </c>
@@ -1264,7 +1304,6 @@
       <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1">
         <v>200</v>
       </c>
@@ -1275,7 +1314,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2003</v>
       </c>
@@ -1301,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2004</v>
       </c>
@@ -1324,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2005</v>
       </c>
@@ -1347,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2006</v>
       </c>
@@ -1357,7 +1396,6 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1"/>
       <c r="E13" s="1">
         <v>1000</v>
       </c>
@@ -1368,7 +1406,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2007</v>
       </c>
@@ -1378,7 +1416,6 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="1">
         <v>120</v>
       </c>
@@ -1389,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2008</v>
       </c>
@@ -1412,7 +1449,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2009</v>
       </c>
@@ -1435,7 +1472,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2010</v>
       </c>
@@ -1458,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2011</v>
       </c>
@@ -1481,7 +1518,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2012</v>
       </c>
@@ -1504,7 +1541,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2013</v>
       </c>
@@ -1528,8 +1565,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>